--- a/5. Atalhos/Atalhos.xlsx
+++ b/5. Atalhos/Atalhos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Especializacao-em-Analise-de-Dados\5. Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C434917-7EFA-4540-AAAC-A12840BD4406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F34B2FA-AD95-4DEB-8313-047F2AB4C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="978" firstSheet="8" activeTab="13" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="978" firstSheet="8" activeTab="13" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl T" sheetId="16" r:id="rId1"/>
@@ -288,8 +288,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -501,13 +501,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -588,8 +585,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76470</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Vendedor">
@@ -612,7 +609,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -995,13 +992,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1009,7 +1006,7 @@
       <c r="A2" s="29">
         <v>43983</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="30">
@@ -1017,10 +1014,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>43983</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="30">
@@ -1028,10 +1025,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>43983</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="30">
@@ -1039,10 +1036,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>43983</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="30">
@@ -1050,10 +1047,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>43983</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="30">
@@ -1061,10 +1058,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>43983</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="30">
@@ -1072,10 +1069,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>43983</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="30">
@@ -1083,10 +1080,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>43983</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="30">
@@ -1094,10 +1091,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>43983</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="30">
@@ -1105,10 +1102,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <v>43983</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="30">
@@ -1116,10 +1113,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>43984</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="30">
@@ -1127,10 +1124,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>43984</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="30">
@@ -1138,10 +1135,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>43984</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="30">
@@ -1149,10 +1146,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <v>43984</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="30">
@@ -1160,10 +1157,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>43984</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="30">
@@ -1171,10 +1168,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <v>43984</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="30">
@@ -1182,10 +1179,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="29">
         <v>43984</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="30">
@@ -1193,10 +1190,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="29">
         <v>43984</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="30">
@@ -1204,10 +1201,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="29">
         <v>43984</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="30">
@@ -1215,10 +1212,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+      <c r="A21" s="29">
         <v>43985</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="30">
@@ -1226,10 +1223,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="29">
         <v>43985</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="30">
@@ -1237,10 +1234,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+      <c r="A23" s="29">
         <v>43985</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="30">
@@ -1248,10 +1245,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="A24" s="29">
         <v>43985</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="30">
@@ -1259,10 +1256,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+      <c r="A25" s="29">
         <v>43985</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="30">
@@ -1270,10 +1267,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>43985</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="30">
@@ -1281,10 +1278,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+      <c r="A27" s="29">
         <v>43985</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="30">
@@ -1292,10 +1289,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <v>43985</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="30">
@@ -1303,10 +1300,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="A29" s="29">
         <v>43985</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="30">
@@ -1314,10 +1311,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <v>43985</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="30">
@@ -1325,10 +1322,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <v>43985</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="30">
@@ -1336,10 +1333,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>43985</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="30">
@@ -1347,10 +1344,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="31">
+      <c r="A33" s="29">
         <v>43985</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="30">
@@ -1358,10 +1355,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <v>43985</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="30">
@@ -1369,10 +1366,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+      <c r="A35" s="29">
         <v>43986</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="30">
@@ -1380,10 +1377,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <v>43986</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="30">
@@ -1391,10 +1388,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="A37" s="29">
         <v>43986</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="30">
@@ -1402,10 +1399,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="A38" s="29">
         <v>43987</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="30">
@@ -1413,10 +1410,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="A39" s="29">
         <v>43987</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="30">
@@ -1424,10 +1421,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="A40" s="29">
         <v>43987</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="30">
@@ -1435,10 +1432,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="31">
+      <c r="A41" s="29">
         <v>43987</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="30">
@@ -1446,10 +1443,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <v>43987</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="30">
@@ -1457,10 +1454,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <v>43987</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="30">
@@ -1468,10 +1465,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <v>43987</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="30">
@@ -1479,10 +1476,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
+      <c r="A45" s="29">
         <v>43987</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="30">
@@ -1490,10 +1487,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
+      <c r="A46" s="29">
         <v>43988</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="30">
@@ -1501,10 +1498,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="29">
         <v>43988</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="30">
@@ -1512,10 +1509,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="29">
         <v>43988</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="30">
@@ -1523,10 +1520,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
+      <c r="A49" s="29">
         <v>43988</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="30">
@@ -1534,10 +1531,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="31">
+      <c r="A50" s="29">
         <v>43988</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="30">
@@ -1545,10 +1542,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="31">
+      <c r="A51" s="29">
         <v>43988</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="30">
@@ -1556,10 +1553,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="31">
+      <c r="A52" s="29">
         <v>43988</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="30">
@@ -1567,10 +1564,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="31">
+      <c r="A53" s="29">
         <v>43988</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="30">
@@ -1578,10 +1575,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="31">
+      <c r="A54" s="29">
         <v>43989</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="30">
@@ -1589,10 +1586,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="31">
+      <c r="A55" s="29">
         <v>43989</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="30">
@@ -1600,10 +1597,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="31">
+      <c r="A56" s="29">
         <v>43989</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="30">
@@ -1611,10 +1608,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="31">
+      <c r="A57" s="29">
         <v>43989</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="30">
@@ -1622,10 +1619,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
+      <c r="A58" s="29">
         <v>43989</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="30">
@@ -1633,10 +1630,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="31">
+      <c r="A59" s="29">
         <v>43989</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="30">
@@ -1644,10 +1641,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="31">
+      <c r="A60" s="29">
         <v>43989</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="30">
@@ -1655,10 +1652,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="31">
+      <c r="A61" s="29">
         <v>43989</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="30">
@@ -1666,10 +1663,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="31">
+      <c r="A62" s="29">
         <v>43989</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="30">
@@ -1677,10 +1674,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="31">
+      <c r="A63" s="29">
         <v>43989</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="30">
@@ -1688,10 +1685,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
+      <c r="A64" s="29">
         <v>43989</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="30">
@@ -1699,10 +1696,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="31">
+      <c r="A65" s="29">
         <v>43989</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="30">
@@ -1710,10 +1707,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="31">
+      <c r="A66" s="29">
         <v>43989</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="30">
@@ -1721,10 +1718,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="31">
+      <c r="A67" s="29">
         <v>43990</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="30">
@@ -1732,10 +1729,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="31">
+      <c r="A68" s="29">
         <v>43990</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="30">
@@ -1743,10 +1740,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
+      <c r="A69" s="29">
         <v>43990</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="30">
@@ -1754,10 +1751,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
+      <c r="A70" s="29">
         <v>43991</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="30">
@@ -1765,10 +1762,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="31">
+      <c r="A71" s="29">
         <v>43991</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="30">
@@ -1776,10 +1773,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="31">
+      <c r="A72" s="29">
         <v>43991</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="30">
@@ -1787,10 +1784,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="31">
+      <c r="A73" s="29">
         <v>43991</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="30">
@@ -1798,10 +1795,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
+      <c r="A74" s="29">
         <v>43991</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="30">
@@ -1809,10 +1806,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="31">
+      <c r="A75" s="29">
         <v>43991</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="30">
@@ -1820,10 +1817,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="31">
+      <c r="A76" s="29">
         <v>43991</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="30">
@@ -1831,10 +1828,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="31">
+      <c r="A77" s="29">
         <v>43991</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="30">
@@ -1842,10 +1839,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="31">
+      <c r="A78" s="29">
         <v>43991</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="30">
@@ -1853,10 +1850,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="31">
+      <c r="A79" s="29">
         <v>43991</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="30">
@@ -1864,10 +1861,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="31">
+      <c r="A80" s="29">
         <v>43991</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="30">
@@ -1875,10 +1872,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="31">
+      <c r="A81" s="29">
         <v>43992</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="30">
@@ -1886,10 +1883,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="31">
+      <c r="A82" s="29">
         <v>43992</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="30">
@@ -1897,10 +1894,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="31">
+      <c r="A83" s="29">
         <v>43992</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="30">
@@ -1908,10 +1905,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="31">
+      <c r="A84" s="29">
         <v>43992</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="30">
@@ -1919,10 +1916,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="31">
+      <c r="A85" s="29">
         <v>43992</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="30">
@@ -1930,10 +1927,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="31">
+      <c r="A86" s="29">
         <v>43992</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="30">
@@ -1941,10 +1938,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="31">
+      <c r="A87" s="29">
         <v>43992</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="30">
@@ -1952,10 +1949,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="31">
+      <c r="A88" s="29">
         <v>43992</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="30">
@@ -1963,10 +1960,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="31">
+      <c r="A89" s="29">
         <v>43992</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="30">
@@ -1974,10 +1971,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="31">
+      <c r="A90" s="29">
         <v>43992</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="30">
@@ -1985,10 +1982,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="31">
+      <c r="A91" s="29">
         <v>43992</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="30">
@@ -1996,10 +1993,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="31">
+      <c r="A92" s="29">
         <v>43992</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="30">
@@ -2007,10 +2004,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="31">
+      <c r="A93" s="29">
         <v>43993</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="30">
@@ -2018,10 +2015,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="31">
+      <c r="A94" s="29">
         <v>43993</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="30">
@@ -2029,10 +2026,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="31">
+      <c r="A95" s="29">
         <v>43993</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="30">
@@ -2040,10 +2037,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="31">
+      <c r="A96" s="29">
         <v>43993</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="30">
@@ -2051,10 +2048,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="31">
+      <c r="A97" s="29">
         <v>43993</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="30">
@@ -2062,10 +2059,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="31">
+      <c r="A98" s="29">
         <v>43993</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="30">
@@ -2073,10 +2070,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="31">
+      <c r="A99" s="29">
         <v>43993</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="30">
@@ -2084,10 +2081,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="31">
+      <c r="A100" s="29">
         <v>43993</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="30">
@@ -2095,10 +2092,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="31">
+      <c r="A101" s="29">
         <v>43993</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="30">
@@ -2106,10 +2103,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="31">
+      <c r="A102" s="29">
         <v>43993</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="30">
@@ -2117,10 +2114,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="31">
+      <c r="A103" s="29">
         <v>43993</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="30">
@@ -2128,10 +2125,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="31">
+      <c r="A104" s="29">
         <v>43993</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="30">
@@ -2139,10 +2136,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="31">
+      <c r="A105" s="29">
         <v>43994</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="30">
@@ -2150,10 +2147,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="31">
+      <c r="A106" s="29">
         <v>43994</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="30">
@@ -2161,10 +2158,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="31">
+      <c r="A107" s="29">
         <v>43994</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="30">
@@ -2172,10 +2169,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="31">
+      <c r="A108" s="29">
         <v>43994</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="30">
@@ -2183,10 +2180,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="31">
+      <c r="A109" s="29">
         <v>43994</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="30">
@@ -2194,10 +2191,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="31">
+      <c r="A110" s="29">
         <v>43994</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="30">
@@ -2205,10 +2202,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="31">
+      <c r="A111" s="29">
         <v>43994</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="30">
@@ -2216,10 +2213,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="31">
+      <c r="A112" s="29">
         <v>43994</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="30">
@@ -2227,10 +2224,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="31">
+      <c r="A113" s="29">
         <v>43995</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="30">
@@ -2238,10 +2235,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="31">
+      <c r="A114" s="29">
         <v>43995</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="30">
@@ -2249,10 +2246,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="31">
+      <c r="A115" s="29">
         <v>43995</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="30">
@@ -2260,10 +2257,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="31">
+      <c r="A116" s="29">
         <v>43995</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="30">
@@ -2271,10 +2268,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="31">
+      <c r="A117" s="29">
         <v>43995</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="30">
@@ -2282,10 +2279,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="31">
+      <c r="A118" s="29">
         <v>43995</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="30">
@@ -2293,10 +2290,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="31">
+      <c r="A119" s="29">
         <v>43995</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="30">
@@ -2304,10 +2301,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="31">
+      <c r="A120" s="29">
         <v>43996</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="30">
@@ -2315,10 +2312,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="31">
+      <c r="A121" s="29">
         <v>43996</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B121" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="30">
@@ -2326,10 +2323,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="31">
+      <c r="A122" s="29">
         <v>43996</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="30">
@@ -2337,10 +2334,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="31">
+      <c r="A123" s="29">
         <v>43996</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="30">
@@ -2348,10 +2345,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="31">
+      <c r="A124" s="29">
         <v>43996</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="30">
@@ -2359,10 +2356,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="31">
+      <c r="A125" s="29">
         <v>43996</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="30">
@@ -2370,10 +2367,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="31">
+      <c r="A126" s="29">
         <v>43996</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C126" s="30">
@@ -2381,10 +2378,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="31">
+      <c r="A127" s="29">
         <v>43996</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="30">
@@ -2392,10 +2389,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="31">
+      <c r="A128" s="29">
         <v>43997</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="30">
@@ -2403,10 +2400,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="31">
+      <c r="A129" s="29">
         <v>43997</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="30">
@@ -2414,10 +2411,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="31">
+      <c r="A130" s="29">
         <v>43997</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="30">
@@ -2425,10 +2422,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="31">
+      <c r="A131" s="29">
         <v>43997</v>
       </c>
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="30">
@@ -2436,10 +2433,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="31">
+      <c r="A132" s="29">
         <v>43997</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="30">
@@ -2447,10 +2444,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="31">
+      <c r="A133" s="29">
         <v>43997</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B133" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="30">
@@ -2458,10 +2455,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="31">
+      <c r="A134" s="29">
         <v>43997</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C134" s="30">
@@ -2469,10 +2466,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="31">
+      <c r="A135" s="29">
         <v>43997</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="30">
@@ -2480,10 +2477,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="31">
+      <c r="A136" s="29">
         <v>43998</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B136" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="30">
@@ -2491,10 +2488,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="31">
+      <c r="A137" s="29">
         <v>43998</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="30">
@@ -2502,10 +2499,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="31">
+      <c r="A138" s="29">
         <v>43998</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="30">
@@ -2513,10 +2510,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="31">
+      <c r="A139" s="29">
         <v>43998</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="30">
@@ -2524,10 +2521,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="31">
+      <c r="A140" s="29">
         <v>43998</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="30">
@@ -2535,10 +2532,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="31">
+      <c r="A141" s="29">
         <v>43998</v>
       </c>
-      <c r="B141" s="32" t="s">
+      <c r="B141" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="30">
@@ -2546,10 +2543,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="31">
+      <c r="A142" s="29">
         <v>43998</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="30">
@@ -2557,10 +2554,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="31">
+      <c r="A143" s="29">
         <v>43998</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="30">
@@ -2568,10 +2565,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="31">
+      <c r="A144" s="29">
         <v>43998</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="30">
@@ -2579,10 +2576,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="31">
+      <c r="A145" s="29">
         <v>43998</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="30">
@@ -2590,10 +2587,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="31">
+      <c r="A146" s="29">
         <v>43998</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="30">
@@ -2601,10 +2598,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="31">
+      <c r="A147" s="29">
         <v>43999</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="30">
@@ -2612,10 +2609,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="31">
+      <c r="A148" s="29">
         <v>43999</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="30">
@@ -2623,10 +2620,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="31">
+      <c r="A149" s="29">
         <v>43999</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="30">
@@ -2634,10 +2631,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="31">
+      <c r="A150" s="29">
         <v>43999</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="30">
@@ -2645,10 +2642,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="31">
+      <c r="A151" s="29">
         <v>43999</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="30">
@@ -2656,10 +2653,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="31">
+      <c r="A152" s="29">
         <v>43999</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="30">
@@ -2667,10 +2664,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="31">
+      <c r="A153" s="29">
         <v>43999</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="30">
@@ -2678,10 +2675,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="31">
+      <c r="A154" s="29">
         <v>44000</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="30">
@@ -2689,10 +2686,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="31">
+      <c r="A155" s="29">
         <v>44000</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="30">
@@ -2700,10 +2697,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="31">
+      <c r="A156" s="29">
         <v>44000</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="30">
@@ -2711,10 +2708,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="31">
+      <c r="A157" s="29">
         <v>44000</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C157" s="30">
@@ -2722,10 +2719,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="31">
+      <c r="A158" s="29">
         <v>44000</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B158" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="30">
@@ -2733,10 +2730,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="31">
+      <c r="A159" s="29">
         <v>44000</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="30">
@@ -2744,10 +2741,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="31">
+      <c r="A160" s="29">
         <v>44000</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="30">
@@ -2755,10 +2752,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="31">
+      <c r="A161" s="29">
         <v>44000</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C161" s="30">
@@ -2766,10 +2763,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="31">
+      <c r="A162" s="29">
         <v>44000</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="30">
@@ -2777,10 +2774,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="31">
+      <c r="A163" s="29">
         <v>44000</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="30">
@@ -2788,10 +2785,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="31">
+      <c r="A164" s="29">
         <v>44000</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C164" s="30">
@@ -2799,10 +2796,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="31">
+      <c r="A165" s="29">
         <v>44000</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="30">
@@ -2810,10 +2807,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="31">
+      <c r="A166" s="29">
         <v>44001</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="30">
@@ -2821,10 +2818,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="31">
+      <c r="A167" s="29">
         <v>44001</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C167" s="30">
@@ -2832,10 +2829,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="31">
+      <c r="A168" s="29">
         <v>44001</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="30">
@@ -2843,10 +2840,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="31">
+      <c r="A169" s="29">
         <v>44001</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C169" s="30">
@@ -2854,10 +2851,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="31">
+      <c r="A170" s="29">
         <v>44001</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="30">
@@ -2865,10 +2862,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="31">
+      <c r="A171" s="29">
         <v>44001</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="30">
@@ -2876,10 +2873,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="31">
+      <c r="A172" s="29">
         <v>44001</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="30">
@@ -2887,10 +2884,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="31">
+      <c r="A173" s="29">
         <v>44001</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B173" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="30">
@@ -2898,10 +2895,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="31">
+      <c r="A174" s="29">
         <v>44002</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="30">
@@ -2909,10 +2906,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="31">
+      <c r="A175" s="29">
         <v>44002</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B175" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="30">
@@ -2920,10 +2917,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="31">
+      <c r="A176" s="29">
         <v>44002</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="30">
@@ -2931,10 +2928,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="31">
+      <c r="A177" s="29">
         <v>44002</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B177" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="30">
@@ -2942,10 +2939,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="31">
+      <c r="A178" s="29">
         <v>44002</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="30">
@@ -2953,10 +2950,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="31">
+      <c r="A179" s="29">
         <v>44002</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="30">
@@ -2964,10 +2961,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="31">
+      <c r="A180" s="29">
         <v>44002</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C180" s="30">
@@ -2975,10 +2972,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="31">
+      <c r="A181" s="29">
         <v>44002</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="B181" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C181" s="30">
@@ -2986,10 +2983,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="31">
+      <c r="A182" s="29">
         <v>44002</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="30">
@@ -2997,10 +2994,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="31">
+      <c r="A183" s="29">
         <v>44002</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B183" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="30">
@@ -3008,10 +3005,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="31">
+      <c r="A184" s="29">
         <v>44002</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C184" s="30">
@@ -3019,10 +3016,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="31">
+      <c r="A185" s="29">
         <v>44003</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="B185" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="30">
@@ -3030,10 +3027,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="31">
+      <c r="A186" s="29">
         <v>44003</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B186" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C186" s="30">
@@ -3041,10 +3038,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="31">
+      <c r="A187" s="29">
         <v>44003</v>
       </c>
-      <c r="B187" s="32" t="s">
+      <c r="B187" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C187" s="30">
@@ -3052,10 +3049,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="31">
+      <c r="A188" s="29">
         <v>44003</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B188" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C188" s="30">
@@ -3063,10 +3060,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="31">
+      <c r="A189" s="29">
         <v>44003</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="30">
@@ -3074,10 +3071,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="31">
+      <c r="A190" s="29">
         <v>44003</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C190" s="30">
@@ -3085,10 +3082,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="31">
+      <c r="A191" s="29">
         <v>44003</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C191" s="30">
@@ -3096,10 +3093,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="31">
+      <c r="A192" s="29">
         <v>44003</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="30">
@@ -3107,10 +3104,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="31">
+      <c r="A193" s="29">
         <v>44003</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="30">
@@ -3118,10 +3115,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="31">
+      <c r="A194" s="29">
         <v>44003</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B194" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="30">
@@ -3129,10 +3126,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="31">
+      <c r="A195" s="29">
         <v>44003</v>
       </c>
-      <c r="B195" s="32" t="s">
+      <c r="B195" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="30">
@@ -3140,10 +3137,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="31">
+      <c r="A196" s="29">
         <v>44004</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C196" s="30">
@@ -3151,10 +3148,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="31">
+      <c r="A197" s="29">
         <v>44004</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="30">
@@ -3162,10 +3159,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="31">
+      <c r="A198" s="29">
         <v>44004</v>
       </c>
-      <c r="B198" s="32" t="s">
+      <c r="B198" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="30">
@@ -3173,10 +3170,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="31">
+      <c r="A199" s="29">
         <v>44004</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C199" s="30">
@@ -3184,10 +3181,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="31">
+      <c r="A200" s="29">
         <v>44004</v>
       </c>
-      <c r="B200" s="32" t="s">
+      <c r="B200" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="30">
@@ -3195,10 +3192,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="31">
+      <c r="A201" s="29">
         <v>44005</v>
       </c>
-      <c r="B201" s="32" t="s">
+      <c r="B201" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="30">
@@ -3206,10 +3203,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="31">
+      <c r="A202" s="29">
         <v>44005</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B202" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="30">
@@ -3217,10 +3214,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="31">
+      <c r="A203" s="29">
         <v>44005</v>
       </c>
-      <c r="B203" s="32" t="s">
+      <c r="B203" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="30">
@@ -3228,10 +3225,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="31">
+      <c r="A204" s="29">
         <v>44005</v>
       </c>
-      <c r="B204" s="32" t="s">
+      <c r="B204" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="30">
@@ -3239,10 +3236,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="31">
+      <c r="A205" s="29">
         <v>44005</v>
       </c>
-      <c r="B205" s="32" t="s">
+      <c r="B205" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="30">
@@ -3250,10 +3247,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="31">
+      <c r="A206" s="29">
         <v>44005</v>
       </c>
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="30">
@@ -3261,10 +3258,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="31">
+      <c r="A207" s="29">
         <v>44005</v>
       </c>
-      <c r="B207" s="32" t="s">
+      <c r="B207" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C207" s="30">
@@ -3272,10 +3269,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="31">
+      <c r="A208" s="29">
         <v>44005</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="30">
@@ -3283,10 +3280,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="31">
+      <c r="A209" s="29">
         <v>44005</v>
       </c>
-      <c r="B209" s="32" t="s">
+      <c r="B209" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="30">
@@ -3294,10 +3291,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="31">
+      <c r="A210" s="29">
         <v>44005</v>
       </c>
-      <c r="B210" s="32" t="s">
+      <c r="B210" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C210" s="30">
@@ -3305,10 +3302,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="31">
+      <c r="A211" s="29">
         <v>44006</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B211" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="30">
@@ -3316,10 +3313,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="31">
+      <c r="A212" s="29">
         <v>44006</v>
       </c>
-      <c r="B212" s="32" t="s">
+      <c r="B212" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C212" s="30">
@@ -3327,10 +3324,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="31">
+      <c r="A213" s="29">
         <v>44006</v>
       </c>
-      <c r="B213" s="32" t="s">
+      <c r="B213" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="30">
@@ -3338,10 +3335,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="31">
+      <c r="A214" s="29">
         <v>44006</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C214" s="30">
@@ -3349,10 +3346,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="31">
+      <c r="A215" s="29">
         <v>44006</v>
       </c>
-      <c r="B215" s="32" t="s">
+      <c r="B215" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="30">
@@ -3360,10 +3357,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="31">
+      <c r="A216" s="29">
         <v>44006</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="30">
@@ -3371,10 +3368,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="31">
+      <c r="A217" s="29">
         <v>44006</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="30">
@@ -3382,10 +3379,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="31">
+      <c r="A218" s="29">
         <v>44006</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="30">
@@ -3393,10 +3390,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="31">
+      <c r="A219" s="29">
         <v>44007</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="30">
@@ -3404,10 +3401,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="31">
+      <c r="A220" s="29">
         <v>44007</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B220" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C220" s="30">
@@ -3415,10 +3412,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="31">
+      <c r="A221" s="29">
         <v>44007</v>
       </c>
-      <c r="B221" s="32" t="s">
+      <c r="B221" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C221" s="30">
@@ -3426,10 +3423,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="31">
+      <c r="A222" s="29">
         <v>44007</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B222" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C222" s="30">
@@ -3437,10 +3434,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="31">
+      <c r="A223" s="29">
         <v>44008</v>
       </c>
-      <c r="B223" s="32" t="s">
+      <c r="B223" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C223" s="30">
@@ -3448,10 +3445,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="31">
+      <c r="A224" s="29">
         <v>44008</v>
       </c>
-      <c r="B224" s="32" t="s">
+      <c r="B224" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="30">
@@ -3459,10 +3456,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="31">
+      <c r="A225" s="29">
         <v>44008</v>
       </c>
-      <c r="B225" s="32" t="s">
+      <c r="B225" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C225" s="30">
@@ -3470,10 +3467,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="31">
+      <c r="A226" s="29">
         <v>44008</v>
       </c>
-      <c r="B226" s="32" t="s">
+      <c r="B226" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="30">
@@ -3481,10 +3478,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="31">
+      <c r="A227" s="29">
         <v>44008</v>
       </c>
-      <c r="B227" s="32" t="s">
+      <c r="B227" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="30">
@@ -3492,10 +3489,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="31">
+      <c r="A228" s="29">
         <v>44008</v>
       </c>
-      <c r="B228" s="32" t="s">
+      <c r="B228" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C228" s="30">
@@ -3503,10 +3500,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="31">
+      <c r="A229" s="29">
         <v>44008</v>
       </c>
-      <c r="B229" s="32" t="s">
+      <c r="B229" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C229" s="30">
@@ -3514,10 +3511,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="31">
+      <c r="A230" s="29">
         <v>44008</v>
       </c>
-      <c r="B230" s="32" t="s">
+      <c r="B230" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C230" s="30">
@@ -3525,10 +3522,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="31">
+      <c r="A231" s="29">
         <v>44008</v>
       </c>
-      <c r="B231" s="32" t="s">
+      <c r="B231" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C231" s="30">
@@ -3536,10 +3533,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="31">
+      <c r="A232" s="29">
         <v>44008</v>
       </c>
-      <c r="B232" s="32" t="s">
+      <c r="B232" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C232" s="30">
@@ -3547,10 +3544,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="31">
+      <c r="A233" s="29">
         <v>44008</v>
       </c>
-      <c r="B233" s="32" t="s">
+      <c r="B233" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C233" s="30">
@@ -3558,10 +3555,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="31">
+      <c r="A234" s="29">
         <v>44009</v>
       </c>
-      <c r="B234" s="32" t="s">
+      <c r="B234" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="30">
@@ -3569,10 +3566,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="31">
+      <c r="A235" s="29">
         <v>44009</v>
       </c>
-      <c r="B235" s="32" t="s">
+      <c r="B235" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="30">
@@ -3580,10 +3577,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="31">
+      <c r="A236" s="29">
         <v>44009</v>
       </c>
-      <c r="B236" s="32" t="s">
+      <c r="B236" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C236" s="30">
@@ -3591,10 +3588,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="31">
+      <c r="A237" s="29">
         <v>44009</v>
       </c>
-      <c r="B237" s="32" t="s">
+      <c r="B237" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="30">
@@ -3602,10 +3599,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="31">
+      <c r="A238" s="29">
         <v>44009</v>
       </c>
-      <c r="B238" s="32" t="s">
+      <c r="B238" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C238" s="30">
@@ -3613,10 +3610,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="31">
+      <c r="A239" s="29">
         <v>44009</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B239" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="30">
@@ -3624,10 +3621,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="31">
+      <c r="A240" s="29">
         <v>44009</v>
       </c>
-      <c r="B240" s="32" t="s">
+      <c r="B240" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="30">
@@ -3635,10 +3632,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="31">
+      <c r="A241" s="29">
         <v>44009</v>
       </c>
-      <c r="B241" s="32" t="s">
+      <c r="B241" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C241" s="30">
@@ -3646,10 +3643,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="31">
+      <c r="A242" s="29">
         <v>44009</v>
       </c>
-      <c r="B242" s="32" t="s">
+      <c r="B242" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C242" s="30">
@@ -3657,10 +3654,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="31">
+      <c r="A243" s="29">
         <v>44010</v>
       </c>
-      <c r="B243" s="32" t="s">
+      <c r="B243" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C243" s="30">
@@ -3668,10 +3665,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="31">
+      <c r="A244" s="29">
         <v>44010</v>
       </c>
-      <c r="B244" s="32" t="s">
+      <c r="B244" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C244" s="30">
@@ -3679,10 +3676,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="31">
+      <c r="A245" s="29">
         <v>44010</v>
       </c>
-      <c r="B245" s="32" t="s">
+      <c r="B245" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C245" s="30">
@@ -3690,10 +3687,10 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="31">
+      <c r="A246" s="29">
         <v>44010</v>
       </c>
-      <c r="B246" s="32" t="s">
+      <c r="B246" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C246" s="30">
@@ -3701,10 +3698,10 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="31">
+      <c r="A247" s="29">
         <v>44010</v>
       </c>
-      <c r="B247" s="32" t="s">
+      <c r="B247" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C247" s="30">
@@ -3712,10 +3709,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="31">
+      <c r="A248" s="29">
         <v>44010</v>
       </c>
-      <c r="B248" s="32" t="s">
+      <c r="B248" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C248" s="30">
@@ -3723,10 +3720,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="31">
+      <c r="A249" s="29">
         <v>44010</v>
       </c>
-      <c r="B249" s="32" t="s">
+      <c r="B249" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C249" s="30">
@@ -3734,10 +3731,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="31">
+      <c r="A250" s="29">
         <v>44010</v>
       </c>
-      <c r="B250" s="32" t="s">
+      <c r="B250" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C250" s="30">
@@ -3961,7 +3958,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,16 +3969,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9"/>
@@ -16056,13 +16053,13 @@
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>10000</v>
       </c>
       <c r="C2" s="3">
         <v>44101</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>56285537627</v>
       </c>
     </row>
@@ -16070,13 +16067,13 @@
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>3200</v>
       </c>
       <c r="C3" s="3">
         <v>44170</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>58866419137</v>
       </c>
     </row>
@@ -16084,13 +16081,13 @@
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>7500</v>
       </c>
       <c r="C4" s="3">
         <v>43767</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>79179596425</v>
       </c>
     </row>
@@ -16098,13 +16095,13 @@
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>10000</v>
       </c>
       <c r="C5" s="3">
         <v>44026</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>95288512163</v>
       </c>
     </row>
@@ -16112,13 +16109,13 @@
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>3200</v>
       </c>
       <c r="C6" s="3">
         <v>43471</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>57181726328</v>
       </c>
     </row>
@@ -16126,13 +16123,13 @@
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>10000</v>
       </c>
       <c r="C7" s="3">
         <v>43630</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>11247295455</v>
       </c>
     </row>
@@ -16140,13 +16137,13 @@
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>3200</v>
       </c>
       <c r="C8" s="3">
         <v>44192</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>47111914389</v>
       </c>
       <c r="H8" s="3"/>
@@ -16155,13 +16152,13 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>7500</v>
       </c>
       <c r="C9" s="3">
         <v>43639</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>11814954552</v>
       </c>
       <c r="H9" s="3"/>
@@ -16170,13 +16167,13 @@
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>3200</v>
       </c>
       <c r="C10" s="3">
         <v>43744</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>62611154618</v>
       </c>
     </row>
@@ -16184,13 +16181,13 @@
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>10000</v>
       </c>
       <c r="C11" s="3">
         <v>43953</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>57623538585</v>
       </c>
     </row>
@@ -16198,13 +16195,13 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>10000</v>
       </c>
       <c r="C12" s="3">
         <v>43665</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>79936918176</v>
       </c>
     </row>
@@ -16212,13 +16209,13 @@
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>3200</v>
       </c>
       <c r="C13" s="3">
         <v>43434</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>46917625558</v>
       </c>
     </row>
@@ -16226,13 +16223,13 @@
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>7500</v>
       </c>
       <c r="C14" s="3">
         <v>43783</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>26517877354</v>
       </c>
     </row>
@@ -16240,13 +16237,13 @@
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>7500</v>
       </c>
       <c r="C15" s="3">
         <v>43784</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>43657392451</v>
       </c>
     </row>
@@ -16254,13 +16251,13 @@
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>10000</v>
       </c>
       <c r="C16" s="3">
         <v>44012</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>97535992218</v>
       </c>
     </row>
@@ -16268,13 +16265,13 @@
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>7500</v>
       </c>
       <c r="C17" s="3">
         <v>43667</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>79179596424</v>
       </c>
     </row>
@@ -16355,7 +16352,7 @@
         <v>159729</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="9"/>
@@ -16395,7 +16392,7 @@
         <v>251806</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="9"/>
